--- a/Output/income&expenses.xlsx
+++ b/Output/income&expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phanuruj Sotthidat\Documents\Fodder\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294439E5-498A-4F0C-88DE-6CBC3309BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123307D6-041B-4F60-AAE4-F9F64C2D8A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Receipt" sheetId="2" r:id="rId1"/>
@@ -21,27 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <x:si>
-    <x:t>Tacos Del Mal Shrimp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Especial Salad Chicken</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fountain Beverage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.99</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>The Sand Dollar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82.98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HARBOR LANE CAFE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.39</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -385,15 +382,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6"/>
+      <x:selection activeCell="C5" sqref="C5 A2:C5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="29.855469" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="37" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -404,26 +405,26 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
